--- a/reflection/Controller.xlsx
+++ b/reflection/Controller.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\SeleniumWorkSpace\SeleniumProject\reflection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ClonedCopy\morningJan2026-\reflection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD9154E-6D14-4CB3-A2D6-3AEA9786DB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02DE25C-C72A-4EE6-8DA9-C8253AD28254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>ExecuteTest</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>TS_LoginCreateAndDeleteUserAndLogout</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>testScripts.TestScript</t>
@@ -385,7 +382,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,10 +408,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -422,7 +419,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
